--- a/data/YEG.xlsx
+++ b/data/YEG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>YEG</t>
@@ -26770,7 +26770,7 @@
         <v>4.2673128E9</v>
       </c>
       <c r="I12" s="25" t="n">
-        <v>1.32307857101E11</v>
+        <v>1.36236074178E11</v>
       </c>
       <c r="K12" s="25" t="n">
         <v>4.476572794E10</v>
@@ -26851,7 +26851,7 @@
         <v>1.6748532915E10</v>
       </c>
       <c r="AK12" s="25" t="n">
-        <v>1.32307857101E11</v>
+        <v>1.36236074178E11</v>
       </c>
       <c r="AL12" s="25" t="n">
         <v>2.46269222023E11</v>
@@ -27008,7 +27008,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" s="25" t="n">
-        <v>1.20406763921E11</v>
+        <v>1.25313068997E11</v>
       </c>
       <c r="K14" s="25" t="n">
         <v>2.3222270355E10</v>
@@ -27089,7 +27089,7 @@
         <v>1.6694682528E10</v>
       </c>
       <c r="AK14" s="25" t="n">
-        <v>1.20406763921E11</v>
+        <v>1.25313068997E11</v>
       </c>
       <c r="AL14" s="25" t="n">
         <v>1.71269222023E11</v>
@@ -27246,7 +27246,7 @@
         <v>0.0</v>
       </c>
       <c r="I16" s="25" t="n">
-        <v>1.1869680077E10</v>
+        <v>1.0891592078E10</v>
       </c>
       <c r="K16" s="25" t="n">
         <v>1.6216376099E10</v>
@@ -27327,7 +27327,7 @@
         <v>0.0</v>
       </c>
       <c r="AK16" s="25" t="n">
-        <v>1.1869680077E10</v>
+        <v>1.0891592078E10</v>
       </c>
       <c r="AL16" s="25" t="n">
         <v>7.5E10</v>
@@ -27365,7 +27365,7 @@
         <v>4.43E9</v>
       </c>
       <c r="I17" s="25" t="n">
-        <v>2.3E8</v>
+        <v>1.23E9</v>
       </c>
       <c r="K17" s="25" t="n">
         <v>6.1210296036E10</v>
@@ -27446,7 +27446,7 @@
         <v>2.3E8</v>
       </c>
       <c r="AK17" s="25" t="n">
-        <v>2.3E8</v>
+        <v>1.23E9</v>
       </c>
       <c r="AL17" s="25" t="n">
         <v>2.3E8</v>
@@ -27603,7 +27603,7 @@
         <v>4.43E9</v>
       </c>
       <c r="I19" s="25" t="n">
-        <v>2.3E8</v>
+        <v>1.23E9</v>
       </c>
       <c r="K19" s="25" t="n">
         <v>6.1210296036E10</v>
@@ -27684,7 +27684,7 @@
         <v>2.3E8</v>
       </c>
       <c r="AK19" s="25" t="n">
-        <v>2.3E8</v>
+        <v>1.23E9</v>
       </c>
       <c r="AL19" s="25" t="n">
         <v>2.3E8</v>
@@ -27722,7 +27722,7 @@
         <v>4.43E9</v>
       </c>
       <c r="I20" s="25" t="n">
-        <v>2.3E8</v>
+        <v>1.23E9</v>
       </c>
       <c r="K20" s="25" t="n">
         <v>6.1210296036E10</v>
@@ -27803,7 +27803,7 @@
         <v>2.3E8</v>
       </c>
       <c r="AK20" s="25" t="n">
-        <v>2.3E8</v>
+        <v>1.23E9</v>
       </c>
       <c r="AL20" s="25" t="n">
         <v>2.3E8</v>
@@ -28198,7 +28198,7 @@
         <v>3.3426193553E11</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>3.38945461315E11</v>
+        <v>1.1314051732E11</v>
       </c>
       <c r="K24" s="25" t="n">
         <v>1.39115159461E11</v>
@@ -28279,7 +28279,7 @@
         <v>2.4414342541E11</v>
       </c>
       <c r="AK24" s="25" t="n">
-        <v>3.38945461315E11</v>
+        <v>1.1314051732E11</v>
       </c>
       <c r="AL24" s="25" t="n">
         <v>1.45518343007E11</v>
@@ -28674,7 +28674,7 @@
         <v>3.3426193553E11</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>3.38945461315E11</v>
+        <v>1.1314051732E11</v>
       </c>
       <c r="K28" s="25" t="n">
         <v>1.39115159461E11</v>
@@ -28755,7 +28755,7 @@
         <v>2.4414342541E11</v>
       </c>
       <c r="AK28" s="25" t="n">
-        <v>3.38945461315E11</v>
+        <v>1.1314051732E11</v>
       </c>
       <c r="AL28" s="25" t="n">
         <v>1.45518343007E11</v>
@@ -28793,7 +28793,7 @@
         <v>1.05372541887E11</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>3.566820483E10</v>
+        <v>4.0804852414E10</v>
       </c>
       <c r="K29" s="25" t="n">
         <v>6.3949619452E10</v>
@@ -28874,7 +28874,7 @@
         <v>8.8013570313E10</v>
       </c>
       <c r="AK29" s="25" t="n">
-        <v>3.566820483E10</v>
+        <v>4.0804852414E10</v>
       </c>
       <c r="AL29" s="25" t="n">
         <v>6.2330624211E10</v>
@@ -29269,7 +29269,7 @@
         <v>0.0</v>
       </c>
       <c r="I33" s="25" t="n">
-        <v>0.0</v>
+        <v>3.7918978364E10</v>
       </c>
       <c r="K33" s="25" t="n">
         <v>4.8088902659E10</v>
@@ -29350,7 +29350,7 @@
         <v>0.0</v>
       </c>
       <c r="AK33" s="25" t="n">
-        <v>0.0</v>
+        <v>3.7918978364E10</v>
       </c>
       <c r="AL33" s="25" t="n">
         <v>6.138177487E10</v>
@@ -29507,7 +29507,7 @@
         <v>1.05372541887E11</v>
       </c>
       <c r="I35" s="25" t="n">
-        <v>3.566820483E10</v>
+        <v>2.88587405E9</v>
       </c>
       <c r="K35" s="25" t="n">
         <v>1.5860716793E10</v>
@@ -29588,7 +29588,7 @@
         <v>8.8013570313E10</v>
       </c>
       <c r="AK35" s="25" t="n">
-        <v>3.566820483E10</v>
+        <v>2.88587405E9</v>
       </c>
       <c r="AL35" s="25" t="n">
         <v>9.48849341E8</v>
@@ -30578,7 +30578,7 @@
         <v>3.45139910099E11</v>
       </c>
       <c r="I44" s="25" t="n">
-        <v>2.70176690609E11</v>
+        <v>4.42300973579E11</v>
       </c>
       <c r="K44" s="25" t="n">
         <v>3.2433655416E10</v>
@@ -30659,7 +30659,7 @@
         <v>3.68232108457E11</v>
       </c>
       <c r="AK44" s="25" t="n">
-        <v>2.70176690609E11</v>
+        <v>4.42300973579E11</v>
       </c>
       <c r="AL44" s="25" t="n">
         <v>5.91222264664E11</v>
@@ -30697,7 +30697,7 @@
         <v>6.606910099E9</v>
       </c>
       <c r="I45" s="25" t="n">
-        <v>7.6345628E9</v>
+        <v>6.7829068E9</v>
       </c>
       <c r="K45" s="25" t="n">
         <v>0.0</v>
@@ -30778,7 +30778,7 @@
         <v>4.478710925E9</v>
       </c>
       <c r="AK45" s="25" t="n">
-        <v>7.6345628E9</v>
+        <v>6.7829068E9</v>
       </c>
       <c r="AL45" s="25" t="n">
         <v>0.0</v>
@@ -31054,7 +31054,7 @@
         <v>3.38533E11</v>
       </c>
       <c r="I48" s="25" t="n">
-        <v>2.62542127809E11</v>
+        <v>4.35518066779E11</v>
       </c>
       <c r="K48" s="25" t="n">
         <v>3.2433655416E10</v>
@@ -31135,7 +31135,7 @@
         <v>3.63753397532E11</v>
       </c>
       <c r="AK48" s="25" t="n">
-        <v>2.62542127809E11</v>
+        <v>4.35518066779E11</v>
       </c>
       <c r="AL48" s="25" t="n">
         <v>5.91222264664E11</v>
@@ -31173,7 +31173,7 @@
         <v>2.4159652E10</v>
       </c>
       <c r="I49" s="25" t="n">
-        <v>6.4221146729E10</v>
+        <v>1.6097844675E10</v>
       </c>
       <c r="K49" s="25" t="n">
         <v>1.0261888078E10</v>
@@ -31254,7 +31254,7 @@
         <v>1.4494295824E10</v>
       </c>
       <c r="AK49" s="25" t="n">
-        <v>6.4221146729E10</v>
+        <v>1.6097844675E10</v>
       </c>
       <c r="AL49" s="25" t="n">
         <v>1.5777509766E10</v>
@@ -31411,7 +31411,7 @@
         <v>3.10590909E8</v>
       </c>
       <c r="I51" s="25" t="n">
-        <v>6.3363754874E10</v>
+        <v>1.524045282E10</v>
       </c>
       <c r="K51" s="25" t="n">
         <v>2.83502263E8</v>
@@ -31492,7 +31492,7 @@
         <v>1.1375598847E10</v>
       </c>
       <c r="AK51" s="25" t="n">
-        <v>6.3363754874E10</v>
+        <v>1.524045282E10</v>
       </c>
       <c r="AL51" s="25" t="n">
         <v>6.1056E7</v>
@@ -31649,7 +31649,7 @@
         <v>2.29618975E10</v>
       </c>
       <c r="I53" s="25" t="n">
-        <v>5.802092736E9</v>
+        <v>5.797187736E9</v>
       </c>
       <c r="K53" s="25" t="n">
         <v>4.166687787E9</v>
@@ -31730,7 +31730,7 @@
         <v>6.950912791E9</v>
       </c>
       <c r="AK53" s="25" t="n">
-        <v>5.802092736E9</v>
+        <v>5.797187736E9</v>
       </c>
       <c r="AL53" s="25" t="n">
         <v>5.859557729E9</v>
@@ -31887,7 +31887,7 @@
         <v>8.24244306E8</v>
       </c>
       <c r="I55" s="25" t="n">
-        <v>4.91702667E9</v>
+        <v>4.858863336E9</v>
       </c>
       <c r="K55" s="25" t="n">
         <v>0.0</v>
@@ -31968,7 +31968,7 @@
         <v>4.373792969E9</v>
       </c>
       <c r="AK55" s="25" t="n">
-        <v>4.91702667E9</v>
+        <v>4.858863336E9</v>
       </c>
       <c r="AL55" s="25" t="n">
         <v>4.59609654E8</v>
@@ -32006,7 +32006,7 @@
         <v>-8.010451164E9</v>
       </c>
       <c r="I56" s="25" t="n">
-        <v>-1.2229702215E10</v>
+        <v>-1.2176443881E10</v>
       </c>
       <c r="K56" s="25" t="n">
         <v>-2.83502263E8</v>
@@ -32087,7 +32087,7 @@
         <v>-1.0537648459E10</v>
       </c>
       <c r="AK56" s="25" t="n">
-        <v>-1.2229702215E10</v>
+        <v>-1.2176443881E10</v>
       </c>
       <c r="AL56" s="25" t="n">
         <v>-3.97239661E8</v>
@@ -33077,7 +33077,7 @@
         <v>1.02221370617E11</v>
       </c>
       <c r="I65" s="25" t="n">
-        <v>2.15306574509E11</v>
+        <v>2.43416211684E11</v>
       </c>
       <c r="K65" s="25" t="n">
         <v>7.102122654E9</v>
@@ -33158,7 +33158,7 @@
         <v>2.12116679331E11</v>
       </c>
       <c r="AK65" s="25" t="n">
-        <v>2.15306574509E11</v>
+        <v>2.43416211684E11</v>
       </c>
       <c r="AL65" s="25" t="n">
         <v>2.43615889727E11</v>
@@ -33315,7 +33315,7 @@
         <v>8.3167863077E10</v>
       </c>
       <c r="I67" s="25" t="n">
-        <v>1.28992920802E11</v>
+        <v>1.55042557977E11</v>
       </c>
       <c r="K67" s="25" t="n">
         <v>3.16875E7</v>
@@ -33396,7 +33396,7 @@
         <v>1.11049823714E11</v>
       </c>
       <c r="AK67" s="25" t="n">
-        <v>1.28992920802E11</v>
+        <v>1.55042557977E11</v>
       </c>
       <c r="AL67" s="25" t="n">
         <v>1.5503602835E10</v>
@@ -33434,7 +33434,7 @@
         <v>0.0</v>
       </c>
       <c r="I68" s="25" t="n">
-        <v>-1.586584991E10</v>
+        <v>-1.380584991E10</v>
       </c>
       <c r="K68" s="25" t="n">
         <v>0.0</v>
@@ -33515,7 +33515,7 @@
         <v>-1.112648E9</v>
       </c>
       <c r="AK68" s="25" t="n">
-        <v>-1.586584991E10</v>
+        <v>-1.380584991E10</v>
       </c>
       <c r="AL68" s="25" t="n">
         <v>-1.5303924792E10</v>
@@ -33553,7 +33553,7 @@
         <v>1.7077677917E10</v>
       </c>
       <c r="I69" s="25" t="n">
-        <v>4.2625601374E10</v>
+        <v>4.5172026678E10</v>
       </c>
       <c r="K69" s="25" t="n">
         <v>4.41001934E8</v>
@@ -33634,7 +33634,7 @@
         <v>4.2475267845E10</v>
       </c>
       <c r="AK69" s="25" t="n">
-        <v>4.2625601374E10</v>
+        <v>4.5172026678E10</v>
       </c>
       <c r="AL69" s="25" t="n">
         <v>4.8287050333E10</v>
@@ -33791,7 +33791,7 @@
         <v>8.336571729E9</v>
       </c>
       <c r="I71" s="25" t="n">
-        <v>3.1553291342E10</v>
+        <v>4.0101105719E10</v>
       </c>
       <c r="K71" s="25" t="n">
         <v>1.9919483E7</v>
@@ -33872,7 +33872,7 @@
         <v>2.5781356183E10</v>
       </c>
       <c r="AK71" s="25" t="n">
-        <v>3.1553291342E10</v>
+        <v>4.0101105719E10</v>
       </c>
       <c r="AL71" s="25" t="n">
         <v>7.580516334E9</v>
@@ -33910,7 +33910,7 @@
         <v>0.0</v>
       </c>
       <c r="I72" s="25" t="n">
-        <v>-6.125915026E9</v>
+        <v>-1.2127304099E10</v>
       </c>
       <c r="K72" s="25" t="n">
         <v>0.0</v>
@@ -33991,7 +33991,7 @@
         <v>-5.04313396E8</v>
       </c>
       <c r="AK72" s="25" t="n">
-        <v>-6.125915026E9</v>
+        <v>-1.2127304099E10</v>
       </c>
       <c r="AL72" s="25" t="n">
         <v>-4.465492679E9</v>
@@ -34029,7 +34029,7 @@
         <v>0.0</v>
       </c>
       <c r="I73" s="25" t="n">
-        <v>0.0</v>
+        <v>1.9715625E10</v>
       </c>
       <c r="K73" s="25" t="n">
         <v>1.990299073E10</v>
@@ -34110,7 +34110,7 @@
         <v>0.0</v>
       </c>
       <c r="AK73" s="25" t="n">
-        <v>0.0</v>
+        <v>1.9715625E10</v>
       </c>
       <c r="AL73" s="25" t="n">
         <v>0.0</v>
@@ -34624,7 +34624,7 @@
         <v>0.0</v>
       </c>
       <c r="I78" s="25" t="n">
-        <v>0.0</v>
+        <v>1.9715625E10</v>
       </c>
       <c r="K78" s="25" t="n">
         <v>1.990299073E10</v>
@@ -34705,7 +34705,7 @@
         <v>0.0</v>
       </c>
       <c r="AK78" s="25" t="n">
-        <v>0.0</v>
+        <v>1.9715625E10</v>
       </c>
       <c r="AL78" s="25" t="n">
         <v>0.0</v>
@@ -34743,7 +34743,7 @@
         <v>1.64695499786E11</v>
       </c>
       <c r="I79" s="25" t="n">
-        <v>5.27656100733E11</v>
+        <v>5.27364096445E11</v>
       </c>
       <c r="K79" s="25" t="n">
         <v>1.40219535973E11</v>
@@ -34824,7 +34824,7 @@
         <v>4.9868681404E11</v>
       </c>
       <c r="AK79" s="25" t="n">
-        <v>5.27656100733E11</v>
+        <v>5.27364096445E11</v>
       </c>
       <c r="AL79" s="25" t="n">
         <v>2.29772029506E11</v>
@@ -34862,7 +34862,7 @@
         <v>1.64695499786E11</v>
       </c>
       <c r="I80" s="25" t="n">
-        <v>5.27656100733E11</v>
+        <v>5.27364096445E11</v>
       </c>
       <c r="K80" s="25" t="n">
         <v>1.40219535973E11</v>
@@ -34943,7 +34943,7 @@
         <v>4.9868681404E11</v>
       </c>
       <c r="AK80" s="25" t="n">
-        <v>5.27656100733E11</v>
+        <v>5.27364096445E11</v>
       </c>
       <c r="AL80" s="25" t="n">
         <v>2.29772029506E11</v>
@@ -35100,7 +35100,7 @@
         <v>0.0</v>
       </c>
       <c r="I82" s="25" t="n">
-        <v>0.0</v>
+        <v>3.20103624445E11</v>
       </c>
       <c r="K82" s="25" t="n">
         <v>1.09390081206E11</v>
@@ -35181,7 +35181,7 @@
         <v>0.0</v>
       </c>
       <c r="AK82" s="25" t="n">
-        <v>0.0</v>
+        <v>3.20103624445E11</v>
       </c>
       <c r="AL82" s="25" t="n">
         <v>0.0</v>
@@ -35219,7 +35219,7 @@
         <v>0.0</v>
       </c>
       <c r="I83" s="25" t="n">
-        <v>0.0</v>
+        <v>3.8216838797E10</v>
       </c>
       <c r="K83" s="25" t="n">
         <v>1.09390081206E11</v>
@@ -35300,7 +35300,7 @@
         <v>0.0</v>
       </c>
       <c r="AK83" s="25" t="n">
-        <v>0.0</v>
+        <v>3.8216838797E10</v>
       </c>
       <c r="AL83" s="25" t="n">
         <v>0.0</v>
@@ -35338,7 +35338,7 @@
         <v>0.0</v>
       </c>
       <c r="I84" s="25" t="n">
-        <v>0.0</v>
+        <v>3.20103624445E11</v>
       </c>
       <c r="K84" s="25" t="n">
         <v>0.0</v>
@@ -35419,7 +35419,7 @@
         <v>0.0</v>
       </c>
       <c r="AK84" s="25" t="n">
-        <v>0.0</v>
+        <v>3.20103624445E11</v>
       </c>
       <c r="AL84" s="25" t="n">
         <v>0.0</v>
@@ -35457,7 +35457,7 @@
         <v>0.0</v>
       </c>
       <c r="I85" s="25" t="n">
-        <v>0.0</v>
+        <v>-3.8216838797E10</v>
       </c>
       <c r="K85" s="25" t="n">
         <v>0.0</v>
@@ -35538,7 +35538,7 @@
         <v>0.0</v>
       </c>
       <c r="AK85" s="25" t="n">
-        <v>0.0</v>
+        <v>-3.8216838797E10</v>
       </c>
       <c r="AL85" s="25" t="n">
         <v>0.0</v>
@@ -35576,7 +35576,7 @@
         <v>0.0</v>
       </c>
       <c r="I86" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8240374583E10</v>
       </c>
       <c r="K86" s="25" t="n">
         <v>2.974629736E9</v>
@@ -35657,7 +35657,7 @@
         <v>0.0</v>
       </c>
       <c r="AK86" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8240374583E10</v>
       </c>
       <c r="AL86" s="25" t="n">
         <v>0.0</v>
@@ -35695,7 +35695,7 @@
         <v>0.0</v>
       </c>
       <c r="I87" s="25" t="n">
-        <v>0.0</v>
+        <v>7.38920476E9</v>
       </c>
       <c r="K87" s="25" t="n">
         <v>2.916615308E9</v>
@@ -35776,7 +35776,7 @@
         <v>0.0</v>
       </c>
       <c r="AK87" s="25" t="n">
-        <v>0.0</v>
+        <v>7.38920476E9</v>
       </c>
       <c r="AL87" s="25" t="n">
         <v>0.0</v>
@@ -35814,7 +35814,7 @@
         <v>0.0</v>
       </c>
       <c r="I88" s="25" t="n">
-        <v>0.0</v>
+        <v>1.9147069701E10</v>
       </c>
       <c r="K88" s="25" t="n">
         <v>5.8014428E7</v>
@@ -35895,7 +35895,7 @@
         <v>0.0</v>
       </c>
       <c r="AK88" s="25" t="n">
-        <v>0.0</v>
+        <v>1.9147069701E10</v>
       </c>
       <c r="AL88" s="25" t="n">
         <v>0.0</v>
@@ -35933,7 +35933,7 @@
         <v>0.0</v>
       </c>
       <c r="I89" s="25" t="n">
-        <v>0.0</v>
+        <v>-8.295899878E9</v>
       </c>
       <c r="K89" s="25" t="n">
         <v>0.0</v>
@@ -36014,7 +36014,7 @@
         <v>0.0</v>
       </c>
       <c r="AK89" s="25" t="n">
-        <v>0.0</v>
+        <v>-8.295899878E9</v>
       </c>
       <c r="AL89" s="25" t="n">
         <v>0.0</v>
@@ -36052,7 +36052,7 @@
         <v>3.6171467026E10</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>3.5435997673E10</v>
+        <v>4.0757934104E10</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>3.6007809764E10</v>
@@ -36133,7 +36133,7 @@
         <v>4.8765440726E10</v>
       </c>
       <c r="AK90" s="25" t="n">
-        <v>3.5435997673E10</v>
+        <v>4.0757934104E10</v>
       </c>
       <c r="AL90" s="25" t="n">
         <v>2.0415863645E10</v>
@@ -36171,7 +36171,7 @@
         <v>1.0628839802E10</v>
       </c>
       <c r="I91" s="25" t="n">
-        <v>8.272729409E9</v>
+        <v>5.927890365E9</v>
       </c>
       <c r="K91" s="25" t="n">
         <v>9.869409869E9</v>
@@ -36252,7 +36252,7 @@
         <v>1.268157564E10</v>
       </c>
       <c r="AK91" s="25" t="n">
-        <v>8.272729409E9</v>
+        <v>5.927890365E9</v>
       </c>
       <c r="AL91" s="25" t="n">
         <v>5.019486007E9</v>
@@ -36528,7 +36528,7 @@
         <v>1.2063044833E10</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>1.587126766E10</v>
+        <v>1.9804920321E10</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>2.3281058238E10</v>
@@ -36609,7 +36609,7 @@
         <v>1.532908702E10</v>
       </c>
       <c r="AK94" s="25" t="n">
-        <v>1.587126766E10</v>
+        <v>1.9804920321E10</v>
       </c>
       <c r="AL94" s="25" t="n">
         <v>6.641975241E9</v>
@@ -36647,7 +36647,7 @@
         <v>5.197119345E9</v>
       </c>
       <c r="I95" s="25" t="n">
-        <v>4.477463362E9</v>
+        <v>7.379755265E9</v>
       </c>
       <c r="K95" s="25" t="n">
         <v>2.567843748E9</v>
@@ -36728,7 +36728,7 @@
         <v>9.33153683E9</v>
       </c>
       <c r="AK95" s="25" t="n">
-        <v>4.477463362E9</v>
+        <v>7.379755265E9</v>
       </c>
       <c r="AL95" s="25" t="n">
         <v>7.448759335E9</v>
@@ -37004,7 +37004,7 @@
         <v>8.282463046E9</v>
       </c>
       <c r="I98" s="25" t="n">
-        <v>6.814537242E9</v>
+        <v>7.645368153E9</v>
       </c>
       <c r="K98" s="25" t="n">
         <v>2.89497909E8</v>
@@ -37085,7 +37085,7 @@
         <v>1.1423241236E10</v>
       </c>
       <c r="AK98" s="25" t="n">
-        <v>6.814537242E9</v>
+        <v>7.645368153E9</v>
       </c>
       <c r="AL98" s="25" t="n">
         <v>1.305643062E9</v>
@@ -37242,7 +37242,7 @@
         <v>2.2580277225E10</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>5.9036855299E10</v>
+        <v>7.8176209568E10</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>3.6683167894E10</v>
@@ -37323,7 +37323,7 @@
         <v>4.1935390293E10</v>
       </c>
       <c r="AK100" s="25" t="n">
-        <v>5.9036855299E10</v>
+        <v>7.8176209568E10</v>
       </c>
       <c r="AL100" s="25" t="n">
         <v>2.9296032062E10</v>
@@ -37718,7 +37718,7 @@
         <v>2.2580277225E10</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>5.9036855299E10</v>
+        <v>7.8176209568E10</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>3.6683167894E10</v>
@@ -37799,7 +37799,7 @@
         <v>4.1935390293E10</v>
       </c>
       <c r="AK104" s="25" t="n">
-        <v>5.9036855299E10</v>
+        <v>7.8176209568E10</v>
       </c>
       <c r="AL104" s="25" t="n">
         <v>2.9296032062E10</v>
@@ -37837,7 +37837,7 @@
         <v>7.4656206583E10</v>
       </c>
       <c r="I105" s="25" t="n">
-        <v>1.5081320071E11</v>
+        <v>1.4790126334E11</v>
       </c>
       <c r="K105" s="25" t="n">
         <v>1.26908178617E11</v>
@@ -37918,7 +37918,7 @@
         <v>1.31913835766E11</v>
       </c>
       <c r="AK105" s="25" t="n">
-        <v>1.5081320071E11</v>
+        <v>1.4790126334E11</v>
       </c>
       <c r="AL105" s="25" t="n">
         <v>7.4918641818E10</v>
@@ -38194,7 +38194,7 @@
         <v>3.36803821E9</v>
       </c>
       <c r="I108" s="25" t="n">
-        <v>0.0</v>
+        <v>2.277757022E9</v>
       </c>
       <c r="K108" s="25" t="n">
         <v>0.0</v>
@@ -38275,7 +38275,7 @@
         <v>0.0</v>
       </c>
       <c r="AK108" s="25" t="n">
-        <v>0.0</v>
+        <v>2.277757022E9</v>
       </c>
       <c r="AL108" s="25" t="n">
         <v>0.0</v>
@@ -38908,7 +38908,7 @@
         <v>7.1288168373E10</v>
       </c>
       <c r="I114" s="25" t="n">
-        <v>1.5081320071E11</v>
+        <v>1.45623506318E11</v>
       </c>
       <c r="K114" s="25" t="n">
         <v>1.26908178617E11</v>
@@ -38989,7 +38989,7 @@
         <v>1.31913835766E11</v>
       </c>
       <c r="AK114" s="25" t="n">
-        <v>1.5081320071E11</v>
+        <v>1.45623506318E11</v>
       </c>
       <c r="AL114" s="25" t="n">
         <v>7.4918641818E10</v>
@@ -39027,7 +39027,7 @@
         <v>4.7671623982E10</v>
       </c>
       <c r="I115" s="25" t="n">
-        <v>3.9589056505E10</v>
+        <v>5.0006060793E10</v>
       </c>
       <c r="K115" s="25" t="n">
         <v>3.0E10</v>
@@ -39108,7 +39108,7 @@
         <v>3.2214757896E10</v>
       </c>
       <c r="AK115" s="25" t="n">
-        <v>3.9589056505E10</v>
+        <v>5.0006060793E10</v>
       </c>
       <c r="AL115" s="25" t="n">
         <v>3.5927631808E10</v>
@@ -39146,7 +39146,7 @@
         <v>4.75E10</v>
       </c>
       <c r="I116" s="25" t="n">
-        <v>2.9896785319E10</v>
+        <v>4.4513789607E10</v>
       </c>
       <c r="K116" s="25" t="n">
         <v>3.0E10</v>
@@ -39227,7 +39227,7 @@
         <v>3.0198757896E10</v>
       </c>
       <c r="AK116" s="25" t="n">
-        <v>2.9896785319E10</v>
+        <v>4.4513789607E10</v>
       </c>
       <c r="AL116" s="25" t="n">
         <v>3.0470953843E10</v>
@@ -39265,7 +39265,7 @@
         <v>1.71623982E8</v>
       </c>
       <c r="I117" s="25" t="n">
-        <v>9.692271186E9</v>
+        <v>5.492271186E9</v>
       </c>
       <c r="K117" s="25" t="n">
         <v>0.0</v>
@@ -39346,7 +39346,7 @@
         <v>2.016E9</v>
       </c>
       <c r="AK117" s="25" t="n">
-        <v>9.692271186E9</v>
+        <v>5.492271186E9</v>
       </c>
       <c r="AL117" s="25" t="n">
         <v>5.456677965E9</v>
@@ -40098,7 +40098,7 @@
         <v>4.13677081394E11</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>1.00731584491E12</v>
+        <v>1.026485549969E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>3.30188208682E11</v>
@@ -40179,7 +40179,7 @@
         <v>3.45034035848E11</v>
       </c>
       <c r="AK124" s="25" t="n">
-        <v>3.78245344092E11</v>
+        <v>3.97415049151E11</v>
       </c>
       <c r="AL124" s="25" t="n">
         <v>2.17744210115E11</v>
@@ -40336,7 +40336,7 @@
         <v>4.13677081394E11</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>1.00731584491E12</v>
+        <v>1.026485549969E12</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>3.30188208682E11</v>
@@ -40417,7 +40417,7 @@
         <v>3.45034035848E11</v>
       </c>
       <c r="AK126" s="25" t="n">
-        <v>3.78245344092E11</v>
+        <v>3.97415049151E11</v>
       </c>
       <c r="AL126" s="25" t="n">
         <v>2.17744210115E11</v>
@@ -40574,7 +40574,7 @@
         <v>2.685510551E9</v>
       </c>
       <c r="I128" s="25" t="n">
-        <v>4.01740344E8</v>
+        <v>3.90681797E8</v>
       </c>
       <c r="K128" s="25" t="n">
         <v>1.8907786E7</v>
@@ -40655,7 +40655,7 @@
         <v>0.0</v>
       </c>
       <c r="AK128" s="25" t="n">
-        <v>4.01740344E8</v>
+        <v>3.90681797E8</v>
       </c>
       <c r="AL128" s="25" t="n">
         <v>0.0</v>
@@ -40693,7 +40693,7 @@
         <v>2.685510551E9</v>
       </c>
       <c r="I129" s="25" t="n">
-        <v>4.01740344E8</v>
+        <v>3.90681797E8</v>
       </c>
       <c r="K129" s="25" t="n">
         <v>1.8907786E7</v>
@@ -40774,7 +40774,7 @@
         <v>0.0</v>
       </c>
       <c r="AK129" s="25" t="n">
-        <v>4.01740344E8</v>
+        <v>3.90681797E8</v>
       </c>
       <c r="AL129" s="25" t="n">
         <v>0.0</v>
@@ -41407,7 +41407,7 @@
         <v>2.70837678224E11</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>8.63116743453E11</v>
+        <v>8.55243703997E11</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>2.24171585618E11</v>
@@ -41488,7 +41488,7 @@
         <v>2.65879426987E11</v>
       </c>
       <c r="AK135" s="25" t="n">
-        <v>3.44852092072E11</v>
+        <v>3.36979052616E11</v>
       </c>
       <c r="AL135" s="25" t="n">
         <v>1.74479830779E11</v>
@@ -41764,7 +41764,7 @@
         <v>2.70837678224E11</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>8.63116743453E11</v>
+        <v>8.55243703997E11</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>2.24171585618E11</v>
@@ -41845,7 +41845,7 @@
         <v>2.65731813675E11</v>
       </c>
       <c r="AK138" s="25" t="n">
-        <v>3.44852092072E11</v>
+        <v>3.36979052616E11</v>
       </c>
       <c r="AL138" s="25" t="n">
         <v>1.74254614106E11</v>
@@ -42478,7 +42478,7 @@
         <v>4.3764995799E10</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>1.79456718522E11</v>
+        <v>1.91906506913E11</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>2.822074556E9</v>
@@ -42559,7 +42559,7 @@
         <v>2.4509238436E10</v>
       </c>
       <c r="AK144" s="25" t="n">
-        <v>7.7955848815E10</v>
+        <v>9.0405637206E10</v>
       </c>
       <c r="AL144" s="25" t="n">
         <v>5.5046997205E10</v>
@@ -42597,7 +42597,7 @@
         <v>2.3737132636E10</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>2.7625940823E10</v>
+        <v>2.7363971359E10</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>2.819348176E9</v>
@@ -42678,7 +42678,7 @@
         <v>7.651564752E9</v>
       </c>
       <c r="AK145" s="25" t="n">
-        <v>6.082806925E9</v>
+        <v>5.820837461E9</v>
       </c>
       <c r="AL145" s="25" t="n">
         <v>4.108536524E9</v>
@@ -42954,7 +42954,7 @@
         <v>0.0</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4284297169E11</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>0.0</v>
@@ -43035,7 +43035,7 @@
         <v>-5.9703630545E10</v>
       </c>
       <c r="AK148" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4284297169E11</v>
       </c>
       <c r="AL148" s="25" t="n">
         <v>0.0</v>
@@ -43192,7 +43192,7 @@
         <v>0.0</v>
       </c>
       <c r="I150" s="25" t="n">
-        <v>0.0</v>
+        <v>4.823503168E9</v>
       </c>
       <c r="K150" s="25" t="n">
         <v>2726380.0</v>
@@ -43273,7 +43273,7 @@
         <v>0.0</v>
       </c>
       <c r="AK150" s="25" t="n">
-        <v>0.0</v>
+        <v>4.823503168E9</v>
       </c>
       <c r="AL150" s="25" t="n">
         <v>0.0</v>
@@ -43549,7 +43549,7 @@
         <v>2.0027863163E10</v>
       </c>
       <c r="I153" s="25" t="n">
-        <v>1.51830777699E11</v>
+        <v>1.6876060696E10</v>
       </c>
       <c r="K153" s="25" t="n">
         <v>0.0</v>
@@ -43630,7 +43630,7 @@
         <v>7.6561304229E10</v>
       </c>
       <c r="AK153" s="25" t="n">
-        <v>7.187304189E10</v>
+        <v>-6.3081675113E10</v>
       </c>
       <c r="AL153" s="25" t="n">
         <v>5.0938460681E10</v>
@@ -43668,7 +43668,7 @@
         <v>2.1873867713E10</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>0.0</v>
+        <v>5.110832396E10</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>2.33326681E9</v>
@@ -43749,7 +43749,7 @@
         <v>9.718769139E9</v>
       </c>
       <c r="AK154" s="25" t="n">
-        <v>0.0</v>
+        <v>3.0632661917E10</v>
       </c>
       <c r="AL154" s="25" t="n">
         <v>2.0674088563E10</v>
@@ -43787,7 +43787,7 @@
         <v>2.1478522943E10</v>
       </c>
       <c r="I155" s="25" t="n">
-        <v>0.0</v>
+        <v>2.8208427529E10</v>
       </c>
       <c r="K155" s="25" t="n">
         <v>2.2837488E9</v>
@@ -43868,7 +43868,7 @@
         <v>8.044891313E9</v>
       </c>
       <c r="AK155" s="25" t="n">
-        <v>0.0</v>
+        <v>1.1856957495E10</v>
       </c>
       <c r="AL155" s="25" t="n">
         <v>9.367704042E9</v>
@@ -44025,7 +44025,7 @@
         <v>0.0</v>
       </c>
       <c r="I157" s="25" t="n">
-        <v>0.0</v>
+        <v>1.5895306269E10</v>
       </c>
       <c r="K157" s="25" t="n">
         <v>0.0</v>
@@ -44106,7 +44106,7 @@
         <v>0.0</v>
       </c>
       <c r="AK157" s="25" t="n">
-        <v>0.0</v>
+        <v>1.5895306269E10</v>
       </c>
       <c r="AL157" s="25" t="n">
         <v>0.0</v>
@@ -44263,7 +44263,7 @@
         <v>0.0</v>
       </c>
       <c r="I159" s="25" t="n">
-        <v>0.0</v>
+        <v>5.526799308E9</v>
       </c>
       <c r="K159" s="25" t="n">
         <v>0.0</v>
@@ -44344,7 +44344,7 @@
         <v>0.0</v>
       </c>
       <c r="AK159" s="25" t="n">
-        <v>0.0</v>
+        <v>5.526799308E9</v>
       </c>
       <c r="AL159" s="25" t="n">
         <v>0.0</v>
@@ -44501,7 +44501,7 @@
         <v>0.0</v>
       </c>
       <c r="I161" s="25" t="n">
-        <v>0.0</v>
+        <v>1.177256284E9</v>
       </c>
       <c r="K161" s="25" t="n">
         <v>0.0</v>
@@ -44582,7 +44582,7 @@
         <v>0.0</v>
       </c>
       <c r="AK161" s="25" t="n">
-        <v>0.0</v>
+        <v>1.177256284E9</v>
       </c>
       <c r="AL161" s="25" t="n">
         <v>1.082629214E10</v>
@@ -44620,7 +44620,7 @@
         <v>1924121.0</v>
       </c>
       <c r="I162" s="25" t="n">
-        <v>0.0</v>
+        <v>3.0053457E8</v>
       </c>
       <c r="K162" s="25" t="n">
         <v>4.951801E7</v>
@@ -44701,7 +44701,7 @@
         <v>1.673877826E9</v>
       </c>
       <c r="AK162" s="25" t="n">
-        <v>0.0</v>
+        <v>-3.823657439E9</v>
       </c>
       <c r="AL162" s="25" t="n">
         <v>4.80092381E8</v>
@@ -44739,7 +44739,7 @@
         <v>3.92014916664E11</v>
       </c>
       <c r="I163" s="25" t="n">
-        <v>1.010255237225E12</v>
+        <v>1.033116745341E12</v>
       </c>
       <c r="K163" s="25" t="n">
         <v>2.80174226333E11</v>
@@ -44820,7 +44820,7 @@
         <v>2.94555639099E11</v>
       </c>
       <c r="AK163" s="25" t="n">
-        <v>3.78041596627E11</v>
+        <v>4.00903104743E11</v>
       </c>
       <c r="AL163" s="25" t="n">
         <v>2.24450337189E11</v>
@@ -44977,7 +44977,7 @@
         <v>7.4511857992E10</v>
       </c>
       <c r="I165" s="25" t="n">
-        <v>1.1259761948E11</v>
+        <v>8.1424528767E10</v>
       </c>
       <c r="K165" s="25" t="n">
         <v>1.671918481E10</v>
@@ -45058,7 +45058,7 @@
         <v>2.312422043E9</v>
       </c>
       <c r="AK165" s="25" t="n">
-        <v>6.9259785782E10</v>
+        <v>3.8086695069E10</v>
       </c>
       <c r="AL165" s="25" t="n">
         <v>2.1577943681E10</v>
@@ -45096,7 +45096,7 @@
         <v>2.077550158E9</v>
       </c>
       <c r="I166" s="25" t="n">
-        <v>3.3211081649E10</v>
+        <v>3.5677487877E10</v>
       </c>
       <c r="K166" s="25" t="n">
         <v>1.12732879E8</v>
@@ -45177,7 +45177,7 @@
         <v>7.86629093E9</v>
       </c>
       <c r="AK166" s="25" t="n">
-        <v>1.2629972207E10</v>
+        <v>1.5096378435E10</v>
       </c>
       <c r="AL166" s="25" t="n">
         <v>8.040125988E9</v>
@@ -45215,7 +45215,7 @@
         <v>3.28762401869E11</v>
       </c>
       <c r="I167" s="25" t="n">
-        <v>8.34996186646E11</v>
+        <v>8.26364389496E11</v>
       </c>
       <c r="K167" s="25" t="n">
         <v>7.30256638E9</v>
@@ -45296,7 +45296,7 @@
         <v>2.8045783586E11</v>
       </c>
       <c r="AK167" s="25" t="n">
-        <v>2.88803624497E11</v>
+        <v>2.80171827347E11</v>
       </c>
       <c r="AL167" s="25" t="n">
         <v>1.7772615109E11</v>
@@ -45334,7 +45334,7 @@
         <v>-1.3336893355E10</v>
       </c>
       <c r="I168" s="25" t="n">
-        <v>2.945034945E10</v>
+        <v>8.9650339201E10</v>
       </c>
       <c r="K168" s="25" t="n">
         <v>8.646606657E9</v>
@@ -45415,7 +45415,7 @@
         <v>3.919090266E9</v>
       </c>
       <c r="AK168" s="25" t="n">
-        <v>7.348214141E9</v>
+        <v>6.7548203892E10</v>
       </c>
       <c r="AL168" s="25" t="n">
         <v>1.710611643E10</v>

--- a/data/YEG.xlsx
+++ b/data/YEG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>YEG</t>

--- a/data/YEG.xlsx
+++ b/data/YEG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>YEG</t>

--- a/data/YEG.xlsx
+++ b/data/YEG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>YEG</t>
